--- a/investigateNTor4M/output/summary.xlsx
+++ b/investigateNTor4M/output/summary.xlsx
@@ -7,16 +7,17 @@
     <workbookView xWindow="240" yWindow="75" windowWidth="14355" windowHeight="11565"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="8-15" sheetId="1" r:id="rId1"/>
+    <sheet name="9" sheetId="2" r:id="rId2"/>
+    <sheet name="12" sheetId="3" r:id="rId3"/>
+    <sheet name="15" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="21">
   <si>
     <t>NT hand</t>
   </si>
@@ -73,6 +74,12 @@
   </si>
   <si>
     <t>5;5</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>d2000</t>
   </si>
 </sst>
 </file>
@@ -415,7 +422,7 @@
   <dimension ref="C4:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -498,23 +505,23 @@
         <v>2.7259000000000002</v>
       </c>
       <c r="K6">
-        <f>RANK(F6,$F$6:$F$21)</f>
+        <f t="shared" ref="K6:K20" si="0">RANK(F6,$F$6:$F$21)</f>
         <v>2</v>
       </c>
       <c r="L6">
-        <f>RANK(H6,$H$6:$H$21)</f>
+        <f t="shared" ref="L6:L20" si="1">RANK(H6,$H$6:$H$21)</f>
         <v>2</v>
       </c>
       <c r="M6">
-        <f>RANK(I6,$I$6:$I$21)</f>
+        <f t="shared" ref="M6:M20" si="2">RANK(I6,$I$6:$I$21)</f>
         <v>1</v>
       </c>
       <c r="O6">
-        <f>SUM(K6:M6)</f>
+        <f t="shared" ref="O6:O20" si="3">SUM(K6:M6)</f>
         <v>5</v>
       </c>
       <c r="Q6">
-        <f>RANK(O6,$O$6:$O$21,1)</f>
+        <f t="shared" ref="Q6:Q20" si="4">RANK(O6,$O$6:$O$21,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -541,23 +548,23 @@
         <v>2.7019000000000002</v>
       </c>
       <c r="K7">
-        <f>RANK(F7,$F$6:$F$21)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="L7">
-        <f>RANK(H7,$H$6:$H$21)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="M7">
-        <f>RANK(I7,$I$6:$I$21)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="O7">
-        <f>SUM(K7:M7)</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="Q7">
-        <f>RANK(O7,$O$6:$O$21,1)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
@@ -584,23 +591,23 @@
         <v>2.6579000000000002</v>
       </c>
       <c r="K8">
-        <f>RANK(F8,$F$6:$F$21)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="L8">
-        <f>RANK(H8,$H$6:$H$21)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="M8">
-        <f>RANK(I8,$I$6:$I$21)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="O8">
-        <f>SUM(K8:M8)</f>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="Q8">
-        <f>RANK(O8,$O$6:$O$21,1)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
     </row>
@@ -627,23 +634,23 @@
         <v>1.772</v>
       </c>
       <c r="K9">
-        <f>RANK(F9,$F$6:$F$21)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="L9">
-        <f>RANK(H9,$H$6:$H$21)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="M9">
-        <f>RANK(I9,$I$6:$I$21)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="O9">
-        <f>SUM(K9:M9)</f>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="Q9">
-        <f>RANK(O9,$O$6:$O$21,1)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
     </row>
@@ -670,23 +677,23 @@
         <v>1.7607999999999999</v>
       </c>
       <c r="K10">
-        <f>RANK(F10,$F$6:$F$21)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="L10">
-        <f>RANK(H10,$H$6:$H$21)</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="M10">
-        <f>RANK(I10,$I$6:$I$21)</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="O10">
-        <f>SUM(K10:M10)</f>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="Q10">
-        <f>RANK(O10,$O$6:$O$21,1)</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
     </row>
@@ -713,23 +720,23 @@
         <v>1.4142999999999999</v>
       </c>
       <c r="K11">
-        <f>RANK(F11,$F$6:$F$21)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="L11">
-        <f>RANK(H11,$H$6:$H$21)</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="M11">
-        <f>RANK(I11,$I$6:$I$21)</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="O11">
-        <f>SUM(K11:M11)</f>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="Q11">
-        <f>RANK(O11,$O$6:$O$21,1)</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
     </row>
@@ -756,23 +763,23 @@
         <v>1.6894</v>
       </c>
       <c r="K12">
-        <f>RANK(F12,$F$6:$F$21)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="L12">
-        <f>RANK(H12,$H$6:$H$21)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="M12">
-        <f>RANK(I12,$I$6:$I$21)</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="O12">
-        <f>SUM(K12:M12)</f>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="Q12">
-        <f>RANK(O12,$O$6:$O$21,1)</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
     </row>
@@ -799,23 +806,23 @@
         <v>1.2795000000000001</v>
       </c>
       <c r="K13">
-        <f>RANK(F13,$F$6:$F$21)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="L13">
-        <f>RANK(H13,$H$6:$H$21)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="M13">
-        <f>RANK(I13,$I$6:$I$21)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="O13">
-        <f>SUM(K13:M13)</f>
+        <f t="shared" si="3"/>
         <v>23</v>
       </c>
       <c r="Q13">
-        <f>RANK(O13,$O$6:$O$21,1)</f>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
     </row>
@@ -842,23 +849,23 @@
         <v>0.14410000000000001</v>
       </c>
       <c r="K14">
-        <f>RANK(F14,$F$6:$F$21)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="L14">
-        <f>RANK(H14,$H$6:$H$21)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="M14">
-        <f>RANK(I14,$I$6:$I$21)</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="O14">
-        <f>SUM(K14:M14)</f>
+        <f t="shared" si="3"/>
         <v>27</v>
       </c>
       <c r="Q14">
-        <f>RANK(O14,$O$6:$O$21,1)</f>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
     </row>
@@ -885,23 +892,23 @@
         <v>-0.20419999999999999</v>
       </c>
       <c r="K15">
-        <f>RANK(F15,$F$6:$F$21)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="L15">
-        <f>RANK(H15,$H$6:$H$21)</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="M15">
-        <f>RANK(I15,$I$6:$I$21)</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="O15">
-        <f>SUM(K15:M15)</f>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="Q15">
-        <f>RANK(O15,$O$6:$O$21,1)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
     </row>
@@ -928,23 +935,23 @@
         <v>-0.64170000000000005</v>
       </c>
       <c r="K16">
-        <f>RANK(F16,$F$6:$F$21)</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="L16">
-        <f>RANK(H16,$H$6:$H$21)</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="M16">
-        <f>RANK(I16,$I$6:$I$21)</f>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="O16">
-        <f>SUM(K16:M16)</f>
+        <f t="shared" si="3"/>
         <v>33</v>
       </c>
       <c r="Q16">
-        <f>RANK(O16,$O$6:$O$21,1)</f>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
     </row>
@@ -971,23 +978,23 @@
         <v>-0.82020000000000004</v>
       </c>
       <c r="K17">
-        <f>RANK(F17,$F$6:$F$21)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="L17">
-        <f>RANK(H17,$H$6:$H$21)</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="M17">
-        <f>RANK(I17,$I$6:$I$21)</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="O17">
-        <f>SUM(K17:M17)</f>
+        <f t="shared" si="3"/>
         <v>36</v>
       </c>
       <c r="Q17">
-        <f>RANK(O17,$O$6:$O$21,1)</f>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
     </row>
@@ -1014,23 +1021,23 @@
         <v>-1.0327</v>
       </c>
       <c r="K18">
-        <f>RANK(F18,$F$6:$F$21)</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="L18">
-        <f>RANK(H18,$H$6:$H$21)</f>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="M18">
-        <f>RANK(I18,$I$6:$I$21)</f>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="O18">
-        <f>SUM(K18:M18)</f>
+        <f t="shared" si="3"/>
         <v>40</v>
       </c>
       <c r="Q18">
-        <f>RANK(O18,$O$6:$O$21,1)</f>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
     </row>
@@ -1057,23 +1064,23 @@
         <v>-1.1983999999999999</v>
       </c>
       <c r="K19">
-        <f>RANK(F19,$F$6:$F$21)</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="L19">
-        <f>RANK(H19,$H$6:$H$21)</f>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="M19">
-        <f>RANK(I19,$I$6:$I$21)</f>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="O19">
-        <f>SUM(K19:M19)</f>
+        <f t="shared" si="3"/>
         <v>41</v>
       </c>
       <c r="Q19">
-        <f>RANK(O19,$O$6:$O$21,1)</f>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
     </row>
@@ -1100,23 +1107,23 @@
         <v>-3.581</v>
       </c>
       <c r="K20">
-        <f>RANK(F20,$F$6:$F$21)</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="L20">
-        <f>RANK(H20,$H$6:$H$21)</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="M20">
-        <f>RANK(I20,$I$6:$I$21)</f>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="O20">
-        <f>SUM(K20:M20)</f>
+        <f t="shared" si="3"/>
         <v>45</v>
       </c>
       <c r="Q20">
-        <f>RANK(O20,$O$6:$O$21,1)</f>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
     </row>
@@ -1130,24 +1137,2277 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="C4:Q20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="4" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K4" t="s">
+        <v>4</v>
+      </c>
+      <c r="L4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>4432</v>
+      </c>
+      <c r="D6">
+        <v>5332</v>
+      </c>
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6">
+        <v>75.42</v>
+      </c>
+      <c r="G6">
+        <v>24.59</v>
+      </c>
+      <c r="H6">
+        <v>2.7347000000000001</v>
+      </c>
+      <c r="I6">
+        <v>3.3172999999999999</v>
+      </c>
+      <c r="J6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6">
+        <f>RANK(F6,$F$6:$F$21)</f>
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <f>RANK(H6,$H$6:$H$21)</f>
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <f>RANK(I6,$I$6:$I$21)</f>
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <f>SUM(K6:M6)</f>
+        <v>4</v>
+      </c>
+      <c r="Q6">
+        <f>RANK(O6,$O$6:$O$21,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>5332</v>
+      </c>
+      <c r="D7">
+        <v>5332</v>
+      </c>
+      <c r="E7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7">
+        <v>77.36</v>
+      </c>
+      <c r="G7">
+        <v>22.65</v>
+      </c>
+      <c r="H7">
+        <v>2.5589</v>
+      </c>
+      <c r="I7">
+        <v>3.2259000000000002</v>
+      </c>
+      <c r="J7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7">
+        <f>RANK(F7,$F$6:$F$21)</f>
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <f>RANK(H7,$H$6:$H$21)</f>
+        <v>2</v>
+      </c>
+      <c r="M7">
+        <f>RANK(I7,$I$6:$I$21)</f>
+        <v>2</v>
+      </c>
+      <c r="O7">
+        <f>SUM(K7:M7)</f>
+        <v>5</v>
+      </c>
+      <c r="Q7">
+        <f>RANK(O7,$O$6:$O$21,1)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>5332</v>
+      </c>
+      <c r="D8">
+        <v>4432</v>
+      </c>
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8">
+        <v>75.34</v>
+      </c>
+      <c r="G8">
+        <v>24.66</v>
+      </c>
+      <c r="H8">
+        <v>2.4382999999999999</v>
+      </c>
+      <c r="I8">
+        <v>3.0684999999999998</v>
+      </c>
+      <c r="J8" t="s">
+        <v>19</v>
+      </c>
+      <c r="K8">
+        <f>RANK(F8,$F$6:$F$21)</f>
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <f>RANK(H8,$H$6:$H$21)</f>
+        <v>3</v>
+      </c>
+      <c r="M8">
+        <f>RANK(I8,$I$6:$I$21)</f>
+        <v>3</v>
+      </c>
+      <c r="O8">
+        <f>SUM(K8:M8)</f>
+        <v>9</v>
+      </c>
+      <c r="Q8">
+        <f>RANK(O8,$O$6:$O$21,1)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>4432</v>
+      </c>
+      <c r="D9">
+        <v>4432</v>
+      </c>
+      <c r="E9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9">
+        <v>70.14</v>
+      </c>
+      <c r="G9">
+        <v>29.86</v>
+      </c>
+      <c r="H9">
+        <v>1.6712</v>
+      </c>
+      <c r="I9">
+        <v>2.0634000000000001</v>
+      </c>
+      <c r="J9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K9">
+        <f>RANK(F9,$F$6:$F$21)</f>
+        <v>4</v>
+      </c>
+      <c r="L9">
+        <f>RANK(H9,$H$6:$H$21)</f>
+        <v>4</v>
+      </c>
+      <c r="M9">
+        <f>RANK(I9,$I$6:$I$21)</f>
+        <v>5</v>
+      </c>
+      <c r="O9">
+        <f>SUM(K9:M9)</f>
+        <v>13</v>
+      </c>
+      <c r="Q9">
+        <f>RANK(O9,$O$6:$O$21,1)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <v>5332</v>
+      </c>
+      <c r="D10">
+        <v>5332</v>
+      </c>
+      <c r="E10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10">
+        <v>65.8</v>
+      </c>
+      <c r="G10">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="H10">
+        <v>1.6394</v>
+      </c>
+      <c r="I10">
+        <v>2.0788000000000002</v>
+      </c>
+      <c r="J10" t="s">
+        <v>19</v>
+      </c>
+      <c r="K10">
+        <f>RANK(F10,$F$6:$F$21)</f>
+        <v>5</v>
+      </c>
+      <c r="L10">
+        <f>RANK(H10,$H$6:$H$21)</f>
+        <v>6</v>
+      </c>
+      <c r="M10">
+        <f>RANK(I10,$I$6:$I$21)</f>
+        <v>4</v>
+      </c>
+      <c r="O10">
+        <f>SUM(K10:M10)</f>
+        <v>15</v>
+      </c>
+      <c r="Q10">
+        <f>RANK(O10,$O$6:$O$21,1)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <v>4432</v>
+      </c>
+      <c r="D11">
+        <v>5332</v>
+      </c>
+      <c r="E11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11">
+        <v>65.010000000000005</v>
+      </c>
+      <c r="G11">
+        <v>35</v>
+      </c>
+      <c r="H11">
+        <v>1.6537999999999999</v>
+      </c>
+      <c r="I11">
+        <v>2.0375999999999999</v>
+      </c>
+      <c r="J11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K11">
+        <f>RANK(F11,$F$6:$F$21)</f>
+        <v>6</v>
+      </c>
+      <c r="L11">
+        <f>RANK(H11,$H$6:$H$21)</f>
+        <v>5</v>
+      </c>
+      <c r="M11">
+        <f>RANK(I11,$I$6:$I$21)</f>
+        <v>6</v>
+      </c>
+      <c r="O11">
+        <f>SUM(K11:M11)</f>
+        <v>17</v>
+      </c>
+      <c r="Q11">
+        <f>RANK(O11,$O$6:$O$21,1)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <v>5332</v>
+      </c>
+      <c r="D12">
+        <v>5332</v>
+      </c>
+      <c r="E12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12">
+        <v>64.25</v>
+      </c>
+      <c r="G12">
+        <v>35.76</v>
+      </c>
+      <c r="H12">
+        <v>1.3207</v>
+      </c>
+      <c r="I12">
+        <v>1.6882999999999999</v>
+      </c>
+      <c r="J12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K12">
+        <f>RANK(F12,$F$6:$F$21)</f>
+        <v>7</v>
+      </c>
+      <c r="L12">
+        <f>RANK(H12,$H$6:$H$21)</f>
+        <v>7</v>
+      </c>
+      <c r="M12">
+        <f>RANK(I12,$I$6:$I$21)</f>
+        <v>7</v>
+      </c>
+      <c r="O12">
+        <f>SUM(K12:M12)</f>
+        <v>21</v>
+      </c>
+      <c r="Q12">
+        <f>RANK(O12,$O$6:$O$21,1)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <v>5332</v>
+      </c>
+      <c r="D13">
+        <v>4432</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13">
+        <v>62.81</v>
+      </c>
+      <c r="G13">
+        <v>37.19</v>
+      </c>
+      <c r="H13">
+        <v>0.99609999999999999</v>
+      </c>
+      <c r="I13">
+        <v>1.3048999999999999</v>
+      </c>
+      <c r="J13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K13">
+        <f>RANK(F13,$F$6:$F$21)</f>
+        <v>8</v>
+      </c>
+      <c r="L13">
+        <f>RANK(H13,$H$6:$H$21)</f>
+        <v>8</v>
+      </c>
+      <c r="M13">
+        <f>RANK(I13,$I$6:$I$21)</f>
+        <v>8</v>
+      </c>
+      <c r="O13">
+        <f>SUM(K13:M13)</f>
+        <v>24</v>
+      </c>
+      <c r="Q13">
+        <f>RANK(O13,$O$6:$O$21,1)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <v>4432</v>
+      </c>
+      <c r="D14">
+        <v>4333</v>
+      </c>
+      <c r="E14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14">
+        <v>55.17</v>
+      </c>
+      <c r="G14">
+        <v>44.83</v>
+      </c>
+      <c r="H14">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="I14">
+        <v>5.3100000000000001E-2</v>
+      </c>
+      <c r="J14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K14">
+        <f>RANK(F14,$F$6:$F$21)</f>
+        <v>9</v>
+      </c>
+      <c r="L14">
+        <f>RANK(H14,$H$6:$H$21)</f>
+        <v>9</v>
+      </c>
+      <c r="M14">
+        <f>RANK(I14,$I$6:$I$21)</f>
+        <v>9</v>
+      </c>
+      <c r="O14">
+        <f>SUM(K14:M14)</f>
+        <v>27</v>
+      </c>
+      <c r="Q14">
+        <f>RANK(O14,$O$6:$O$21,1)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <v>4333</v>
+      </c>
+      <c r="D15">
+        <v>4432</v>
+      </c>
+      <c r="E15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15">
+        <v>53.31</v>
+      </c>
+      <c r="G15">
+        <v>46.7</v>
+      </c>
+      <c r="H15">
+        <v>-0.29299999999999998</v>
+      </c>
+      <c r="I15">
+        <v>-0.3906</v>
+      </c>
+      <c r="J15" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15">
+        <f>RANK(F15,$F$6:$F$21)</f>
+        <v>10</v>
+      </c>
+      <c r="L15">
+        <f>RANK(H15,$H$6:$H$21)</f>
+        <v>10</v>
+      </c>
+      <c r="M15">
+        <f>RANK(I15,$I$6:$I$21)</f>
+        <v>10</v>
+      </c>
+      <c r="O15">
+        <f>SUM(K15:M15)</f>
+        <v>30</v>
+      </c>
+      <c r="Q15">
+        <f>RANK(O15,$O$6:$O$21,1)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <v>5332</v>
+      </c>
+      <c r="D16">
+        <v>4333</v>
+      </c>
+      <c r="E16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16">
+        <v>49.88</v>
+      </c>
+      <c r="G16">
+        <v>50.13</v>
+      </c>
+      <c r="H16">
+        <v>-0.98260000000000003</v>
+      </c>
+      <c r="I16">
+        <v>-1.1301000000000001</v>
+      </c>
+      <c r="J16" t="s">
+        <v>19</v>
+      </c>
+      <c r="K16">
+        <f>RANK(F16,$F$6:$F$21)</f>
+        <v>11</v>
+      </c>
+      <c r="L16">
+        <f>RANK(H16,$H$6:$H$21)</f>
+        <v>11</v>
+      </c>
+      <c r="M16">
+        <f>RANK(I16,$I$6:$I$21)</f>
+        <v>11</v>
+      </c>
+      <c r="O16">
+        <f>SUM(K16:M16)</f>
+        <v>33</v>
+      </c>
+      <c r="Q16">
+        <f>RANK(O16,$O$6:$O$21,1)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <v>4333</v>
+      </c>
+      <c r="D17">
+        <v>5332</v>
+      </c>
+      <c r="E17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17">
+        <v>46.21</v>
+      </c>
+      <c r="G17">
+        <v>53.79</v>
+      </c>
+      <c r="H17">
+        <v>-1.2372000000000001</v>
+      </c>
+      <c r="I17">
+        <v>-1.4923</v>
+      </c>
+      <c r="J17" t="s">
+        <v>19</v>
+      </c>
+      <c r="K17">
+        <f>RANK(F17,$F$6:$F$21)</f>
+        <v>12</v>
+      </c>
+      <c r="L17">
+        <f>RANK(H17,$H$6:$H$21)</f>
+        <v>12</v>
+      </c>
+      <c r="M17">
+        <f>RANK(I17,$I$6:$I$21)</f>
+        <v>12</v>
+      </c>
+      <c r="O17">
+        <f>SUM(K17:M17)</f>
+        <v>36</v>
+      </c>
+      <c r="Q17">
+        <f>RANK(O17,$O$6:$O$21,1)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <v>4333</v>
+      </c>
+      <c r="D18">
+        <v>5332</v>
+      </c>
+      <c r="E18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18">
+        <v>42.45</v>
+      </c>
+      <c r="G18">
+        <v>57.55</v>
+      </c>
+      <c r="H18">
+        <v>-1.37</v>
+      </c>
+      <c r="I18">
+        <v>-1.6972</v>
+      </c>
+      <c r="J18" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18">
+        <f>RANK(F18,$F$6:$F$21)</f>
+        <v>13</v>
+      </c>
+      <c r="L18">
+        <f>RANK(H18,$H$6:$H$21)</f>
+        <v>13</v>
+      </c>
+      <c r="M18">
+        <f>RANK(I18,$I$6:$I$21)</f>
+        <v>13</v>
+      </c>
+      <c r="O18">
+        <f>SUM(K18:M18)</f>
+        <v>39</v>
+      </c>
+      <c r="Q18">
+        <f>RANK(O18,$O$6:$O$21,1)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <v>5332</v>
+      </c>
+      <c r="D19">
+        <v>4333</v>
+      </c>
+      <c r="E19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19">
+        <v>42.06</v>
+      </c>
+      <c r="G19">
+        <v>57.95</v>
+      </c>
+      <c r="H19">
+        <v>-1.4863</v>
+      </c>
+      <c r="I19">
+        <v>-1.8103</v>
+      </c>
+      <c r="J19" t="s">
+        <v>19</v>
+      </c>
+      <c r="K19">
+        <f>RANK(F19,$F$6:$F$21)</f>
+        <v>14</v>
+      </c>
+      <c r="L19">
+        <f>RANK(H19,$H$6:$H$21)</f>
+        <v>14</v>
+      </c>
+      <c r="M19">
+        <f>RANK(I19,$I$6:$I$21)</f>
+        <v>14</v>
+      </c>
+      <c r="O19">
+        <f>SUM(K19:M19)</f>
+        <v>42</v>
+      </c>
+      <c r="Q19">
+        <f>RANK(O19,$O$6:$O$21,1)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <v>4333</v>
+      </c>
+      <c r="D20">
+        <v>4333</v>
+      </c>
+      <c r="E20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20">
+        <v>20.7</v>
+      </c>
+      <c r="G20">
+        <v>79.3</v>
+      </c>
+      <c r="H20">
+        <v>-3.0516999999999999</v>
+      </c>
+      <c r="I20">
+        <v>-3.9089999999999998</v>
+      </c>
+      <c r="J20" t="s">
+        <v>19</v>
+      </c>
+      <c r="K20">
+        <f>RANK(F20,$F$6:$F$21)</f>
+        <v>15</v>
+      </c>
+      <c r="L20">
+        <f>RANK(H20,$H$6:$H$21)</f>
+        <v>15</v>
+      </c>
+      <c r="M20">
+        <f>RANK(I20,$I$6:$I$21)</f>
+        <v>15</v>
+      </c>
+      <c r="O20">
+        <f>SUM(K20:M20)</f>
+        <v>45</v>
+      </c>
+      <c r="Q20">
+        <f>RANK(O20,$O$6:$O$21,1)</f>
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="C6:Q20">
+    <sortCondition ref="Q6:Q20"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="C4:Q20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="4" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K4" t="s">
+        <v>4</v>
+      </c>
+      <c r="L4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>5332</v>
+      </c>
+      <c r="D6">
+        <v>5332</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6">
+        <v>76.11</v>
+      </c>
+      <c r="G6">
+        <v>23.89</v>
+      </c>
+      <c r="H6">
+        <v>2.2273000000000001</v>
+      </c>
+      <c r="I6">
+        <v>2.5586000000000002</v>
+      </c>
+      <c r="J6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6">
+        <f>RANK(F6,$F$6:$F$21)</f>
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <f>RANK(H6,$H$6:$H$21)</f>
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <f>RANK(I6,$I$6:$I$21)</f>
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <f>SUM(K6:M6)</f>
+        <v>3</v>
+      </c>
+      <c r="Q6">
+        <f>RANK(O6,$O$6:$O$21,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>5332</v>
+      </c>
+      <c r="D7">
+        <v>4432</v>
+      </c>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7">
+        <v>67.98</v>
+      </c>
+      <c r="G7">
+        <v>32.03</v>
+      </c>
+      <c r="H7">
+        <v>2.2107000000000001</v>
+      </c>
+      <c r="I7">
+        <v>2.5537999999999998</v>
+      </c>
+      <c r="J7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7">
+        <f>RANK(F7,$F$6:$F$21)</f>
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <f>RANK(H7,$H$6:$H$21)</f>
+        <v>2</v>
+      </c>
+      <c r="M7">
+        <f>RANK(I7,$I$6:$I$21)</f>
+        <v>2</v>
+      </c>
+      <c r="O7">
+        <f>SUM(K7:M7)</f>
+        <v>6</v>
+      </c>
+      <c r="Q7">
+        <f>RANK(O7,$O$6:$O$21,1)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>4432</v>
+      </c>
+      <c r="D8">
+        <v>5332</v>
+      </c>
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8">
+        <v>63.65</v>
+      </c>
+      <c r="G8">
+        <v>36.35</v>
+      </c>
+      <c r="H8">
+        <v>1.9206000000000001</v>
+      </c>
+      <c r="I8">
+        <v>2.1880999999999999</v>
+      </c>
+      <c r="J8" t="s">
+        <v>19</v>
+      </c>
+      <c r="K8">
+        <f>RANK(F8,$F$6:$F$21)</f>
+        <v>4</v>
+      </c>
+      <c r="L8">
+        <f>RANK(H8,$H$6:$H$21)</f>
+        <v>3</v>
+      </c>
+      <c r="M8">
+        <f>RANK(I8,$I$6:$I$21)</f>
+        <v>3</v>
+      </c>
+      <c r="O8">
+        <f>SUM(K8:M8)</f>
+        <v>10</v>
+      </c>
+      <c r="Q8">
+        <f>RANK(O8,$O$6:$O$21,1)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>4432</v>
+      </c>
+      <c r="D9">
+        <v>4432</v>
+      </c>
+      <c r="E9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9">
+        <v>65.58</v>
+      </c>
+      <c r="G9">
+        <v>34.43</v>
+      </c>
+      <c r="H9">
+        <v>1.4181999999999999</v>
+      </c>
+      <c r="I9">
+        <v>1.5911</v>
+      </c>
+      <c r="J9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K9">
+        <f>RANK(F9,$F$6:$F$21)</f>
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <f>RANK(H9,$H$6:$H$21)</f>
+        <v>4</v>
+      </c>
+      <c r="M9">
+        <f>RANK(I9,$I$6:$I$21)</f>
+        <v>4</v>
+      </c>
+      <c r="O9">
+        <f>SUM(K9:M9)</f>
+        <v>11</v>
+      </c>
+      <c r="Q9">
+        <f>RANK(O9,$O$6:$O$21,1)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <v>5332</v>
+      </c>
+      <c r="D10">
+        <v>4432</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10">
+        <v>53.35</v>
+      </c>
+      <c r="G10">
+        <v>46.65</v>
+      </c>
+      <c r="H10">
+        <v>1.3379000000000001</v>
+      </c>
+      <c r="I10">
+        <v>1.5387999999999999</v>
+      </c>
+      <c r="J10" t="s">
+        <v>19</v>
+      </c>
+      <c r="K10">
+        <f>RANK(F10,$F$6:$F$21)</f>
+        <v>6</v>
+      </c>
+      <c r="L10">
+        <f>RANK(H10,$H$6:$H$21)</f>
+        <v>5</v>
+      </c>
+      <c r="M10">
+        <f>RANK(I10,$I$6:$I$21)</f>
+        <v>5</v>
+      </c>
+      <c r="O10">
+        <f>SUM(K10:M10)</f>
+        <v>16</v>
+      </c>
+      <c r="Q10">
+        <f>RANK(O10,$O$6:$O$21,1)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <v>5332</v>
+      </c>
+      <c r="D11">
+        <v>5332</v>
+      </c>
+      <c r="E11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11">
+        <v>53.3</v>
+      </c>
+      <c r="G11">
+        <v>46.71</v>
+      </c>
+      <c r="H11">
+        <v>1.2613000000000001</v>
+      </c>
+      <c r="I11">
+        <v>1.4467000000000001</v>
+      </c>
+      <c r="J11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K11">
+        <f>RANK(F11,$F$6:$F$21)</f>
+        <v>7</v>
+      </c>
+      <c r="L11">
+        <f>RANK(H11,$H$6:$H$21)</f>
+        <v>7</v>
+      </c>
+      <c r="M11">
+        <f>RANK(I11,$I$6:$I$21)</f>
+        <v>6</v>
+      </c>
+      <c r="O11">
+        <f>SUM(K11:M11)</f>
+        <v>20</v>
+      </c>
+      <c r="Q11">
+        <f>RANK(O11,$O$6:$O$21,1)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <v>4432</v>
+      </c>
+      <c r="D12">
+        <v>5332</v>
+      </c>
+      <c r="E12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12">
+        <v>49.87</v>
+      </c>
+      <c r="G12">
+        <v>50.13</v>
+      </c>
+      <c r="H12">
+        <v>1.2643</v>
+      </c>
+      <c r="I12">
+        <v>1.4376</v>
+      </c>
+      <c r="J12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K12">
+        <f>RANK(F12,$F$6:$F$21)</f>
+        <v>10</v>
+      </c>
+      <c r="L12">
+        <f>RANK(H12,$H$6:$H$21)</f>
+        <v>6</v>
+      </c>
+      <c r="M12">
+        <f>RANK(I12,$I$6:$I$21)</f>
+        <v>7</v>
+      </c>
+      <c r="O12">
+        <f>SUM(K12:M12)</f>
+        <v>23</v>
+      </c>
+      <c r="Q12">
+        <f>RANK(O12,$O$6:$O$21,1)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <v>4432</v>
+      </c>
+      <c r="D13">
+        <v>4333</v>
+      </c>
+      <c r="E13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13">
+        <v>54.56</v>
+      </c>
+      <c r="G13">
+        <v>45.45</v>
+      </c>
+      <c r="H13">
+        <v>0.23569999999999999</v>
+      </c>
+      <c r="I13">
+        <v>0.1835</v>
+      </c>
+      <c r="J13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K13">
+        <f>RANK(F13,$F$6:$F$21)</f>
+        <v>5</v>
+      </c>
+      <c r="L13">
+        <f>RANK(H13,$H$6:$H$21)</f>
+        <v>9</v>
+      </c>
+      <c r="M13">
+        <f>RANK(I13,$I$6:$I$21)</f>
+        <v>9</v>
+      </c>
+      <c r="O13">
+        <f>SUM(K13:M13)</f>
+        <v>23</v>
+      </c>
+      <c r="Q13">
+        <f>RANK(O13,$O$6:$O$21,1)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <v>5332</v>
+      </c>
+      <c r="D14">
+        <v>5332</v>
+      </c>
+      <c r="E14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14">
+        <v>52.84</v>
+      </c>
+      <c r="G14">
+        <v>47.16</v>
+      </c>
+      <c r="H14">
+        <v>1.2020999999999999</v>
+      </c>
+      <c r="I14">
+        <v>1.3781000000000001</v>
+      </c>
+      <c r="J14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K14">
+        <f>RANK(F14,$F$6:$F$21)</f>
+        <v>8</v>
+      </c>
+      <c r="L14">
+        <f>RANK(H14,$H$6:$H$21)</f>
+        <v>8</v>
+      </c>
+      <c r="M14">
+        <f>RANK(I14,$I$6:$I$21)</f>
+        <v>8</v>
+      </c>
+      <c r="O14">
+        <f>SUM(K14:M14)</f>
+        <v>24</v>
+      </c>
+      <c r="Q14">
+        <f>RANK(O14,$O$6:$O$21,1)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <v>4333</v>
+      </c>
+      <c r="D15">
+        <v>4432</v>
+      </c>
+      <c r="E15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15">
+        <v>51.96</v>
+      </c>
+      <c r="G15">
+        <v>48.05</v>
+      </c>
+      <c r="H15">
+        <v>6.59E-2</v>
+      </c>
+      <c r="I15">
+        <v>-1.2999999999999999E-2</v>
+      </c>
+      <c r="J15" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15">
+        <f>RANK(F15,$F$6:$F$21)</f>
+        <v>9</v>
+      </c>
+      <c r="L15">
+        <f>RANK(H15,$H$6:$H$21)</f>
+        <v>11</v>
+      </c>
+      <c r="M15">
+        <f>RANK(I15,$I$6:$I$21)</f>
+        <v>11</v>
+      </c>
+      <c r="O15">
+        <f>SUM(K15:M15)</f>
+        <v>31</v>
+      </c>
+      <c r="Q15">
+        <f>RANK(O15,$O$6:$O$21,1)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <v>4333</v>
+      </c>
+      <c r="D16">
+        <v>5332</v>
+      </c>
+      <c r="E16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16">
+        <v>36.19</v>
+      </c>
+      <c r="G16">
+        <v>63.81</v>
+      </c>
+      <c r="H16">
+        <v>9.9400000000000002E-2</v>
+      </c>
+      <c r="I16">
+        <v>6.0400000000000002E-2</v>
+      </c>
+      <c r="J16" t="s">
+        <v>19</v>
+      </c>
+      <c r="K16">
+        <f>RANK(F16,$F$6:$F$21)</f>
+        <v>12</v>
+      </c>
+      <c r="L16">
+        <f>RANK(H16,$H$6:$H$21)</f>
+        <v>10</v>
+      </c>
+      <c r="M16">
+        <f>RANK(I16,$I$6:$I$21)</f>
+        <v>10</v>
+      </c>
+      <c r="O16">
+        <f>SUM(K16:M16)</f>
+        <v>32</v>
+      </c>
+      <c r="Q16">
+        <f>RANK(O16,$O$6:$O$21,1)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <v>5332</v>
+      </c>
+      <c r="D17">
+        <v>4333</v>
+      </c>
+      <c r="E17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17">
+        <v>43.03</v>
+      </c>
+      <c r="G17">
+        <v>56.97</v>
+      </c>
+      <c r="H17">
+        <v>-0.1157</v>
+      </c>
+      <c r="I17">
+        <v>-0.1938</v>
+      </c>
+      <c r="J17" t="s">
+        <v>19</v>
+      </c>
+      <c r="K17">
+        <f>RANK(F17,$F$6:$F$21)</f>
+        <v>11</v>
+      </c>
+      <c r="L17">
+        <f>RANK(H17,$H$6:$H$21)</f>
+        <v>12</v>
+      </c>
+      <c r="M17">
+        <f>RANK(I17,$I$6:$I$21)</f>
+        <v>12</v>
+      </c>
+      <c r="O17">
+        <f>SUM(K17:M17)</f>
+        <v>35</v>
+      </c>
+      <c r="Q17">
+        <f>RANK(O17,$O$6:$O$21,1)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <v>4333</v>
+      </c>
+      <c r="D18">
+        <v>5332</v>
+      </c>
+      <c r="E18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18">
+        <v>31.51</v>
+      </c>
+      <c r="G18">
+        <v>68.489999999999995</v>
+      </c>
+      <c r="H18">
+        <v>-0.2296</v>
+      </c>
+      <c r="I18">
+        <v>-0.3251</v>
+      </c>
+      <c r="J18" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18">
+        <f>RANK(F18,$F$6:$F$21)</f>
+        <v>14</v>
+      </c>
+      <c r="L18">
+        <f>RANK(H18,$H$6:$H$21)</f>
+        <v>13</v>
+      </c>
+      <c r="M18">
+        <f>RANK(I18,$I$6:$I$21)</f>
+        <v>13</v>
+      </c>
+      <c r="O18">
+        <f>SUM(K18:M18)</f>
+        <v>40</v>
+      </c>
+      <c r="Q18">
+        <f>RANK(O18,$O$6:$O$21,1)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <v>5332</v>
+      </c>
+      <c r="D19">
+        <v>4333</v>
+      </c>
+      <c r="E19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19">
+        <v>35.9</v>
+      </c>
+      <c r="G19">
+        <v>64.11</v>
+      </c>
+      <c r="H19">
+        <v>-0.60970000000000002</v>
+      </c>
+      <c r="I19">
+        <v>-0.78559999999999997</v>
+      </c>
+      <c r="J19" t="s">
+        <v>19</v>
+      </c>
+      <c r="K19">
+        <f>RANK(F19,$F$6:$F$21)</f>
+        <v>13</v>
+      </c>
+      <c r="L19">
+        <f>RANK(H19,$H$6:$H$21)</f>
+        <v>14</v>
+      </c>
+      <c r="M19">
+        <f>RANK(I19,$I$6:$I$21)</f>
+        <v>14</v>
+      </c>
+      <c r="O19">
+        <f>SUM(K19:M19)</f>
+        <v>41</v>
+      </c>
+      <c r="Q19">
+        <f>RANK(O19,$O$6:$O$21,1)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <v>4333</v>
+      </c>
+      <c r="D20">
+        <v>4333</v>
+      </c>
+      <c r="E20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20">
+        <v>20.7</v>
+      </c>
+      <c r="G20">
+        <v>79.3</v>
+      </c>
+      <c r="H20">
+        <v>-3.0516999999999999</v>
+      </c>
+      <c r="I20">
+        <v>-3.9089999999999998</v>
+      </c>
+      <c r="K20">
+        <f>RANK(F20,$F$6:$F$21)</f>
+        <v>15</v>
+      </c>
+      <c r="L20">
+        <f>RANK(H20,$H$6:$H$21)</f>
+        <v>15</v>
+      </c>
+      <c r="M20">
+        <f>RANK(I20,$I$6:$I$21)</f>
+        <v>15</v>
+      </c>
+      <c r="O20">
+        <f>SUM(K20:M20)</f>
+        <v>45</v>
+      </c>
+      <c r="Q20">
+        <f>RANK(O20,$O$6:$O$21,1)</f>
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="C6:Q20">
+    <sortCondition ref="Q6:Q20"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C4:Q20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L27" sqref="L27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="4" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K4" t="s">
+        <v>4</v>
+      </c>
+      <c r="L4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>5332</v>
+      </c>
+      <c r="D6">
+        <v>5332</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6">
+        <v>52.23</v>
+      </c>
+      <c r="G6">
+        <v>47.78</v>
+      </c>
+      <c r="H6">
+        <v>1.0569999999999999</v>
+      </c>
+      <c r="I6">
+        <v>1.1555</v>
+      </c>
+      <c r="J6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6">
+        <f>RANK(F6,$F$6:$F$21)</f>
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <f>RANK(H6,$H$6:$H$21)</f>
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <f>RANK(I6,$I$6:$I$21)</f>
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <f>SUM(K6:M6)</f>
+        <v>3</v>
+      </c>
+      <c r="Q6">
+        <f>RANK(O6,$O$6:$O$21,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>5332</v>
+      </c>
+      <c r="D7">
+        <v>4432</v>
+      </c>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7">
+        <v>38.270000000000003</v>
+      </c>
+      <c r="G7">
+        <v>61.73</v>
+      </c>
+      <c r="H7">
+        <v>0.85780000000000001</v>
+      </c>
+      <c r="I7">
+        <v>0.95140000000000002</v>
+      </c>
+      <c r="J7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7">
+        <f>RANK(F7,$F$6:$F$21)</f>
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <f>RANK(H7,$H$6:$H$21)</f>
+        <v>2</v>
+      </c>
+      <c r="M7">
+        <f>RANK(I7,$I$6:$I$21)</f>
+        <v>2</v>
+      </c>
+      <c r="O7">
+        <f>SUM(K7:M7)</f>
+        <v>7</v>
+      </c>
+      <c r="Q7">
+        <f>RANK(O7,$O$6:$O$21,1)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>4432</v>
+      </c>
+      <c r="D8">
+        <v>4432</v>
+      </c>
+      <c r="E8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8">
+        <v>42.87</v>
+      </c>
+      <c r="G8">
+        <v>57.13</v>
+      </c>
+      <c r="H8">
+        <v>0.65790000000000004</v>
+      </c>
+      <c r="I8">
+        <v>0.70530000000000004</v>
+      </c>
+      <c r="J8" t="s">
+        <v>19</v>
+      </c>
+      <c r="K8">
+        <f>RANK(F8,$F$6:$F$21)</f>
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <f>RANK(H8,$H$6:$H$21)</f>
+        <v>3</v>
+      </c>
+      <c r="M8">
+        <f>RANK(I8,$I$6:$I$21)</f>
+        <v>3</v>
+      </c>
+      <c r="O8">
+        <f>SUM(K8:M8)</f>
+        <v>8</v>
+      </c>
+      <c r="Q8">
+        <f>RANK(O8,$O$6:$O$21,1)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>4432</v>
+      </c>
+      <c r="D9">
+        <v>5332</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9">
+        <v>30.1</v>
+      </c>
+      <c r="G9">
+        <v>69.900000000000006</v>
+      </c>
+      <c r="H9">
+        <v>0.62719999999999998</v>
+      </c>
+      <c r="I9">
+        <v>0.69179999999999997</v>
+      </c>
+      <c r="J9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K9">
+        <f>RANK(F9,$F$6:$F$21)</f>
+        <v>6</v>
+      </c>
+      <c r="L9">
+        <f>RANK(H9,$H$6:$H$21)</f>
+        <v>4</v>
+      </c>
+      <c r="M9">
+        <f>RANK(I9,$I$6:$I$21)</f>
+        <v>4</v>
+      </c>
+      <c r="O9">
+        <f>SUM(K9:M9)</f>
+        <v>14</v>
+      </c>
+      <c r="Q9">
+        <f>RANK(O9,$O$6:$O$21,1)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <v>5332</v>
+      </c>
+      <c r="D10">
+        <v>4432</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10">
+        <v>27.3</v>
+      </c>
+      <c r="G10">
+        <v>72.7</v>
+      </c>
+      <c r="H10">
+        <v>0.59330000000000005</v>
+      </c>
+      <c r="I10">
+        <v>0.66810000000000003</v>
+      </c>
+      <c r="J10" t="s">
+        <v>19</v>
+      </c>
+      <c r="K10">
+        <f>RANK(F10,$F$6:$F$21)</f>
+        <v>7</v>
+      </c>
+      <c r="L10">
+        <f>RANK(H10,$H$6:$H$21)</f>
+        <v>5</v>
+      </c>
+      <c r="M10">
+        <f>RANK(I10,$I$6:$I$21)</f>
+        <v>5</v>
+      </c>
+      <c r="O10">
+        <f>SUM(K10:M10)</f>
+        <v>17</v>
+      </c>
+      <c r="Q10">
+        <f>RANK(O10,$O$6:$O$21,1)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <v>5332</v>
+      </c>
+      <c r="D11">
+        <v>5332</v>
+      </c>
+      <c r="E11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11">
+        <v>26.37</v>
+      </c>
+      <c r="G11">
+        <v>73.63</v>
+      </c>
+      <c r="H11">
+        <v>0.4743</v>
+      </c>
+      <c r="I11">
+        <v>0.53290000000000004</v>
+      </c>
+      <c r="J11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K11">
+        <f>RANK(F11,$F$6:$F$21)</f>
+        <v>8</v>
+      </c>
+      <c r="L11">
+        <f>RANK(H11,$H$6:$H$21)</f>
+        <v>6</v>
+      </c>
+      <c r="M11">
+        <f>RANK(I11,$I$6:$I$21)</f>
+        <v>6</v>
+      </c>
+      <c r="O11">
+        <f>SUM(K11:M11)</f>
+        <v>20</v>
+      </c>
+      <c r="Q11">
+        <f>RANK(O11,$O$6:$O$21,1)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <v>5332</v>
+      </c>
+      <c r="D12">
+        <v>5332</v>
+      </c>
+      <c r="E12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12">
+        <v>26.05</v>
+      </c>
+      <c r="G12">
+        <v>73.959999999999994</v>
+      </c>
+      <c r="H12">
+        <v>0.47310000000000002</v>
+      </c>
+      <c r="I12">
+        <v>0.53059999999999996</v>
+      </c>
+      <c r="J12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K12">
+        <f>RANK(F12,$F$6:$F$21)</f>
+        <v>9</v>
+      </c>
+      <c r="L12">
+        <f>RANK(H12,$H$6:$H$21)</f>
+        <v>7</v>
+      </c>
+      <c r="M12">
+        <f>RANK(I12,$I$6:$I$21)</f>
+        <v>7</v>
+      </c>
+      <c r="O12">
+        <f>SUM(K12:M12)</f>
+        <v>23</v>
+      </c>
+      <c r="Q12">
+        <f>RANK(O12,$O$6:$O$21,1)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <v>4333</v>
+      </c>
+      <c r="D13">
+        <v>4432</v>
+      </c>
+      <c r="E13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13">
+        <v>32.07</v>
+      </c>
+      <c r="G13">
+        <v>67.930000000000007</v>
+      </c>
+      <c r="H13">
+        <v>0.25369999999999998</v>
+      </c>
+      <c r="I13">
+        <v>0.25009999999999999</v>
+      </c>
+      <c r="J13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K13">
+        <f>RANK(F13,$F$6:$F$21)</f>
+        <v>5</v>
+      </c>
+      <c r="L13">
+        <f>RANK(H13,$H$6:$H$21)</f>
+        <v>10</v>
+      </c>
+      <c r="M13">
+        <f>RANK(I13,$I$6:$I$21)</f>
+        <v>10</v>
+      </c>
+      <c r="O13">
+        <f>SUM(K13:M13)</f>
+        <v>25</v>
+      </c>
+      <c r="Q13">
+        <f>RANK(O13,$O$6:$O$21,1)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <v>4432</v>
+      </c>
+      <c r="D14">
+        <v>5332</v>
+      </c>
+      <c r="E14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14">
+        <v>20.39</v>
+      </c>
+      <c r="G14">
+        <v>79.61</v>
+      </c>
+      <c r="H14">
+        <v>0.34179999999999999</v>
+      </c>
+      <c r="I14">
+        <v>0.38150000000000001</v>
+      </c>
+      <c r="J14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K14">
+        <f>RANK(F14,$F$6:$F$21)</f>
+        <v>10</v>
+      </c>
+      <c r="L14">
+        <f>RANK(H14,$H$6:$H$21)</f>
+        <v>8</v>
+      </c>
+      <c r="M14">
+        <f>RANK(I14,$I$6:$I$21)</f>
+        <v>8</v>
+      </c>
+      <c r="O14">
+        <f>SUM(K14:M14)</f>
+        <v>26</v>
+      </c>
+      <c r="Q14">
+        <f>RANK(O14,$O$6:$O$21,1)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <v>4432</v>
+      </c>
+      <c r="D15">
+        <v>4333</v>
+      </c>
+      <c r="E15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15">
+        <v>32.33</v>
+      </c>
+      <c r="G15">
+        <v>67.67</v>
+      </c>
+      <c r="H15">
+        <v>0.22689999999999999</v>
+      </c>
+      <c r="I15">
+        <v>0.21740000000000001</v>
+      </c>
+      <c r="J15" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15">
+        <f>RANK(F15,$F$6:$F$21)</f>
+        <v>4</v>
+      </c>
+      <c r="L15">
+        <f>RANK(H15,$H$6:$H$21)</f>
+        <v>11</v>
+      </c>
+      <c r="M15">
+        <f>RANK(I15,$I$6:$I$21)</f>
+        <v>12</v>
+      </c>
+      <c r="O15">
+        <f>SUM(K15:M15)</f>
+        <v>27</v>
+      </c>
+      <c r="Q15">
+        <f>RANK(O15,$O$6:$O$21,1)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <v>5332</v>
+      </c>
+      <c r="D16">
+        <v>4333</v>
+      </c>
+      <c r="E16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16">
+        <v>18.649999999999999</v>
+      </c>
+      <c r="G16">
+        <v>81.349999999999994</v>
+      </c>
+      <c r="H16">
+        <v>0.317</v>
+      </c>
+      <c r="I16">
+        <v>0.34399999999999997</v>
+      </c>
+      <c r="J16" t="s">
+        <v>20</v>
+      </c>
+      <c r="K16">
+        <f>RANK(F16,$F$6:$F$21)</f>
+        <v>11</v>
+      </c>
+      <c r="L16">
+        <f>RANK(H16,$H$6:$H$21)</f>
+        <v>9</v>
+      </c>
+      <c r="M16">
+        <f>RANK(I16,$I$6:$I$21)</f>
+        <v>9</v>
+      </c>
+      <c r="O16">
+        <f>SUM(K16:M16)</f>
+        <v>29</v>
+      </c>
+      <c r="Q16">
+        <f>RANK(O16,$O$6:$O$21,1)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <v>4333</v>
+      </c>
+      <c r="D17">
+        <v>5332</v>
+      </c>
+      <c r="E17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17">
+        <v>11.68</v>
+      </c>
+      <c r="G17">
+        <v>88.32</v>
+      </c>
+      <c r="H17">
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="I17">
+        <v>0.223</v>
+      </c>
+      <c r="J17" t="s">
+        <v>20</v>
+      </c>
+      <c r="K17">
+        <f>RANK(F17,$F$6:$F$21)</f>
+        <v>14</v>
+      </c>
+      <c r="L17">
+        <f>RANK(H17,$H$6:$H$21)</f>
+        <v>12</v>
+      </c>
+      <c r="M17">
+        <f>RANK(I17,$I$6:$I$21)</f>
+        <v>11</v>
+      </c>
+      <c r="O17">
+        <f>SUM(K17:M17)</f>
+        <v>37</v>
+      </c>
+      <c r="Q17">
+        <f>RANK(O17,$O$6:$O$21,1)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <v>4333</v>
+      </c>
+      <c r="D18">
+        <v>5332</v>
+      </c>
+      <c r="E18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18">
+        <v>11.91</v>
+      </c>
+      <c r="G18">
+        <v>88.1</v>
+      </c>
+      <c r="H18">
+        <v>7.4099999999999999E-2</v>
+      </c>
+      <c r="I18">
+        <v>7.5399999999999995E-2</v>
+      </c>
+      <c r="J18" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18">
+        <f>RANK(F18,$F$6:$F$21)</f>
+        <v>13</v>
+      </c>
+      <c r="L18">
+        <f>RANK(H18,$H$6:$H$21)</f>
+        <v>13</v>
+      </c>
+      <c r="M18">
+        <f>RANK(I18,$I$6:$I$21)</f>
+        <v>13</v>
+      </c>
+      <c r="O18">
+        <f>SUM(K18:M18)</f>
+        <v>39</v>
+      </c>
+      <c r="Q18">
+        <f>RANK(O18,$O$6:$O$21,1)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <v>5332</v>
+      </c>
+      <c r="D19">
+        <v>4333</v>
+      </c>
+      <c r="E19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="G19">
+        <v>83.9</v>
+      </c>
+      <c r="H19">
+        <v>5.1299999999999998E-2</v>
+      </c>
+      <c r="I19">
+        <v>3.8199999999999998E-2</v>
+      </c>
+      <c r="J19" t="s">
+        <v>19</v>
+      </c>
+      <c r="K19">
+        <f>RANK(F19,$F$6:$F$21)</f>
+        <v>12</v>
+      </c>
+      <c r="L19">
+        <f>RANK(H19,$H$6:$H$21)</f>
+        <v>14</v>
+      </c>
+      <c r="M19">
+        <f>RANK(I19,$I$6:$I$21)</f>
+        <v>14</v>
+      </c>
+      <c r="O19">
+        <f>SUM(K19:M19)</f>
+        <v>40</v>
+      </c>
+      <c r="Q19">
+        <f>RANK(O19,$O$6:$O$21,1)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <v>4333</v>
+      </c>
+      <c r="D20">
+        <v>4333</v>
+      </c>
+      <c r="E20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20">
+        <v>10.130000000000001</v>
+      </c>
+      <c r="G20">
+        <v>89.88</v>
+      </c>
+      <c r="H20">
+        <v>-0.52</v>
+      </c>
+      <c r="I20">
+        <v>-0.63500000000000001</v>
+      </c>
+      <c r="J20" t="s">
+        <v>20</v>
+      </c>
+      <c r="K20">
+        <f>RANK(F20,$F$6:$F$21)</f>
+        <v>15</v>
+      </c>
+      <c r="L20">
+        <f>RANK(H20,$H$6:$H$21)</f>
+        <v>15</v>
+      </c>
+      <c r="M20">
+        <f>RANK(I20,$I$6:$I$21)</f>
+        <v>15</v>
+      </c>
+      <c r="O20">
+        <f>SUM(K20:M20)</f>
+        <v>45</v>
+      </c>
+      <c r="Q20">
+        <f>RANK(O20,$O$6:$O$21,1)</f>
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="C6:Q20">
+    <sortCondition ref="Q6:Q20"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/investigateNTor4M/output/summary.xlsx
+++ b/investigateNTor4M/output/summary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="14355" windowHeight="11565"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="14355" windowHeight="11565" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="8-15" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="22">
   <si>
     <t>NT hand</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>d2000</t>
+  </si>
+  <si>
+    <t>d5000</t>
   </si>
 </sst>
 </file>
@@ -421,7 +424,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:Q20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
@@ -1223,23 +1226,23 @@
         <v>19</v>
       </c>
       <c r="K6">
-        <f>RANK(F6,$F$6:$F$21)</f>
+        <f t="shared" ref="K6:K20" si="0">RANK(F6,$F$6:$F$21)</f>
         <v>2</v>
       </c>
       <c r="L6">
-        <f>RANK(H6,$H$6:$H$21)</f>
+        <f t="shared" ref="L6:L20" si="1">RANK(H6,$H$6:$H$21)</f>
         <v>1</v>
       </c>
       <c r="M6">
-        <f>RANK(I6,$I$6:$I$21)</f>
+        <f t="shared" ref="M6:M20" si="2">RANK(I6,$I$6:$I$21)</f>
         <v>1</v>
       </c>
       <c r="O6">
-        <f>SUM(K6:M6)</f>
+        <f t="shared" ref="O6:O20" si="3">SUM(K6:M6)</f>
         <v>4</v>
       </c>
       <c r="Q6">
-        <f>RANK(O6,$O$6:$O$21,1)</f>
+        <f t="shared" ref="Q6:Q20" si="4">RANK(O6,$O$6:$O$21,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -1269,23 +1272,23 @@
         <v>19</v>
       </c>
       <c r="K7">
-        <f>RANK(F7,$F$6:$F$21)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="L7">
-        <f>RANK(H7,$H$6:$H$21)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="M7">
-        <f>RANK(I7,$I$6:$I$21)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="O7">
-        <f>SUM(K7:M7)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="Q7">
-        <f>RANK(O7,$O$6:$O$21,1)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
@@ -1315,23 +1318,23 @@
         <v>19</v>
       </c>
       <c r="K8">
-        <f>RANK(F8,$F$6:$F$21)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="L8">
-        <f>RANK(H8,$H$6:$H$21)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="M8">
-        <f>RANK(I8,$I$6:$I$21)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="O8">
-        <f>SUM(K8:M8)</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="Q8">
-        <f>RANK(O8,$O$6:$O$21,1)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
     </row>
@@ -1361,23 +1364,23 @@
         <v>19</v>
       </c>
       <c r="K9">
-        <f>RANK(F9,$F$6:$F$21)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="L9">
-        <f>RANK(H9,$H$6:$H$21)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="M9">
-        <f>RANK(I9,$I$6:$I$21)</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="O9">
-        <f>SUM(K9:M9)</f>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="Q9">
-        <f>RANK(O9,$O$6:$O$21,1)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
     </row>
@@ -1407,23 +1410,23 @@
         <v>19</v>
       </c>
       <c r="K10">
-        <f>RANK(F10,$F$6:$F$21)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="L10">
-        <f>RANK(H10,$H$6:$H$21)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="M10">
-        <f>RANK(I10,$I$6:$I$21)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="O10">
-        <f>SUM(K10:M10)</f>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="Q10">
-        <f>RANK(O10,$O$6:$O$21,1)</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
     </row>
@@ -1453,23 +1456,23 @@
         <v>19</v>
       </c>
       <c r="K11">
-        <f>RANK(F11,$F$6:$F$21)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="L11">
-        <f>RANK(H11,$H$6:$H$21)</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="M11">
-        <f>RANK(I11,$I$6:$I$21)</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="O11">
-        <f>SUM(K11:M11)</f>
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
       <c r="Q11">
-        <f>RANK(O11,$O$6:$O$21,1)</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
     </row>
@@ -1499,23 +1502,23 @@
         <v>19</v>
       </c>
       <c r="K12">
-        <f>RANK(F12,$F$6:$F$21)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="L12">
-        <f>RANK(H12,$H$6:$H$21)</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="M12">
-        <f>RANK(I12,$I$6:$I$21)</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="O12">
-        <f>SUM(K12:M12)</f>
+        <f t="shared" si="3"/>
         <v>21</v>
       </c>
       <c r="Q12">
-        <f>RANK(O12,$O$6:$O$21,1)</f>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
     </row>
@@ -1545,23 +1548,23 @@
         <v>19</v>
       </c>
       <c r="K13">
-        <f>RANK(F13,$F$6:$F$21)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="L13">
-        <f>RANK(H13,$H$6:$H$21)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="M13">
-        <f>RANK(I13,$I$6:$I$21)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="O13">
-        <f>SUM(K13:M13)</f>
+        <f t="shared" si="3"/>
         <v>24</v>
       </c>
       <c r="Q13">
-        <f>RANK(O13,$O$6:$O$21,1)</f>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
     </row>
@@ -1591,23 +1594,23 @@
         <v>19</v>
       </c>
       <c r="K14">
-        <f>RANK(F14,$F$6:$F$21)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="L14">
-        <f>RANK(H14,$H$6:$H$21)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="M14">
-        <f>RANK(I14,$I$6:$I$21)</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="O14">
-        <f>SUM(K14:M14)</f>
+        <f t="shared" si="3"/>
         <v>27</v>
       </c>
       <c r="Q14">
-        <f>RANK(O14,$O$6:$O$21,1)</f>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
     </row>
@@ -1637,23 +1640,23 @@
         <v>19</v>
       </c>
       <c r="K15">
-        <f>RANK(F15,$F$6:$F$21)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="L15">
-        <f>RANK(H15,$H$6:$H$21)</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="M15">
-        <f>RANK(I15,$I$6:$I$21)</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="O15">
-        <f>SUM(K15:M15)</f>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="Q15">
-        <f>RANK(O15,$O$6:$O$21,1)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
     </row>
@@ -1683,23 +1686,23 @@
         <v>19</v>
       </c>
       <c r="K16">
-        <f>RANK(F16,$F$6:$F$21)</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="L16">
-        <f>RANK(H16,$H$6:$H$21)</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="M16">
-        <f>RANK(I16,$I$6:$I$21)</f>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="O16">
-        <f>SUM(K16:M16)</f>
+        <f t="shared" si="3"/>
         <v>33</v>
       </c>
       <c r="Q16">
-        <f>RANK(O16,$O$6:$O$21,1)</f>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
     </row>
@@ -1729,23 +1732,23 @@
         <v>19</v>
       </c>
       <c r="K17">
-        <f>RANK(F17,$F$6:$F$21)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="L17">
-        <f>RANK(H17,$H$6:$H$21)</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="M17">
-        <f>RANK(I17,$I$6:$I$21)</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="O17">
-        <f>SUM(K17:M17)</f>
+        <f t="shared" si="3"/>
         <v>36</v>
       </c>
       <c r="Q17">
-        <f>RANK(O17,$O$6:$O$21,1)</f>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
     </row>
@@ -1775,23 +1778,23 @@
         <v>19</v>
       </c>
       <c r="K18">
-        <f>RANK(F18,$F$6:$F$21)</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="L18">
-        <f>RANK(H18,$H$6:$H$21)</f>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="M18">
-        <f>RANK(I18,$I$6:$I$21)</f>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="O18">
-        <f>SUM(K18:M18)</f>
+        <f t="shared" si="3"/>
         <v>39</v>
       </c>
       <c r="Q18">
-        <f>RANK(O18,$O$6:$O$21,1)</f>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
     </row>
@@ -1821,23 +1824,23 @@
         <v>19</v>
       </c>
       <c r="K19">
-        <f>RANK(F19,$F$6:$F$21)</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="L19">
-        <f>RANK(H19,$H$6:$H$21)</f>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="M19">
-        <f>RANK(I19,$I$6:$I$21)</f>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="O19">
-        <f>SUM(K19:M19)</f>
+        <f t="shared" si="3"/>
         <v>42</v>
       </c>
       <c r="Q19">
-        <f>RANK(O19,$O$6:$O$21,1)</f>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
     </row>
@@ -1867,23 +1870,23 @@
         <v>19</v>
       </c>
       <c r="K20">
-        <f>RANK(F20,$F$6:$F$21)</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="L20">
-        <f>RANK(H20,$H$6:$H$21)</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="M20">
-        <f>RANK(I20,$I$6:$I$21)</f>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="O20">
-        <f>SUM(K20:M20)</f>
+        <f t="shared" si="3"/>
         <v>45</v>
       </c>
       <c r="Q20">
-        <f>RANK(O20,$O$6:$O$21,1)</f>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
     </row>
@@ -1899,8 +1902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:Q20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1983,23 +1986,23 @@
         <v>19</v>
       </c>
       <c r="K6">
-        <f>RANK(F6,$F$6:$F$21)</f>
+        <f t="shared" ref="K6:K20" si="0">RANK(F6,$F$6:$F$21)</f>
         <v>1</v>
       </c>
       <c r="L6">
-        <f>RANK(H6,$H$6:$H$21)</f>
+        <f t="shared" ref="L6:L20" si="1">RANK(H6,$H$6:$H$21)</f>
         <v>1</v>
       </c>
       <c r="M6">
-        <f>RANK(I6,$I$6:$I$21)</f>
+        <f t="shared" ref="M6:M20" si="2">RANK(I6,$I$6:$I$21)</f>
         <v>1</v>
       </c>
       <c r="O6">
-        <f>SUM(K6:M6)</f>
+        <f t="shared" ref="O6:O20" si="3">SUM(K6:M6)</f>
         <v>3</v>
       </c>
       <c r="Q6">
-        <f>RANK(O6,$O$6:$O$21,1)</f>
+        <f t="shared" ref="Q6:Q20" si="4">RANK(O6,$O$6:$O$21,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -2029,23 +2032,23 @@
         <v>19</v>
       </c>
       <c r="K7">
-        <f>RANK(F7,$F$6:$F$21)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="L7">
-        <f>RANK(H7,$H$6:$H$21)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="M7">
-        <f>RANK(I7,$I$6:$I$21)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="O7">
-        <f>SUM(K7:M7)</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="Q7">
-        <f>RANK(O7,$O$6:$O$21,1)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
@@ -2075,23 +2078,23 @@
         <v>19</v>
       </c>
       <c r="K8">
-        <f>RANK(F8,$F$6:$F$21)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="L8">
-        <f>RANK(H8,$H$6:$H$21)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="M8">
-        <f>RANK(I8,$I$6:$I$21)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="O8">
-        <f>SUM(K8:M8)</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="Q8">
-        <f>RANK(O8,$O$6:$O$21,1)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
     </row>
@@ -2121,23 +2124,23 @@
         <v>19</v>
       </c>
       <c r="K9">
-        <f>RANK(F9,$F$6:$F$21)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="L9">
-        <f>RANK(H9,$H$6:$H$21)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="M9">
-        <f>RANK(I9,$I$6:$I$21)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="O9">
-        <f>SUM(K9:M9)</f>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="Q9">
-        <f>RANK(O9,$O$6:$O$21,1)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
     </row>
@@ -2167,23 +2170,23 @@
         <v>19</v>
       </c>
       <c r="K10">
-        <f>RANK(F10,$F$6:$F$21)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="L10">
-        <f>RANK(H10,$H$6:$H$21)</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="M10">
-        <f>RANK(I10,$I$6:$I$21)</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="O10">
-        <f>SUM(K10:M10)</f>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="Q10">
-        <f>RANK(O10,$O$6:$O$21,1)</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
     </row>
@@ -2213,23 +2216,23 @@
         <v>19</v>
       </c>
       <c r="K11">
-        <f>RANK(F11,$F$6:$F$21)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="L11">
-        <f>RANK(H11,$H$6:$H$21)</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="M11">
-        <f>RANK(I11,$I$6:$I$21)</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="O11">
-        <f>SUM(K11:M11)</f>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="Q11">
-        <f>RANK(O11,$O$6:$O$21,1)</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
     </row>
@@ -2259,23 +2262,23 @@
         <v>19</v>
       </c>
       <c r="K12">
-        <f>RANK(F12,$F$6:$F$21)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="L12">
-        <f>RANK(H12,$H$6:$H$21)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="M12">
-        <f>RANK(I12,$I$6:$I$21)</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="O12">
-        <f>SUM(K12:M12)</f>
+        <f t="shared" si="3"/>
         <v>23</v>
       </c>
       <c r="Q12">
-        <f>RANK(O12,$O$6:$O$21,1)</f>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
     </row>
@@ -2305,23 +2308,23 @@
         <v>19</v>
       </c>
       <c r="K13">
-        <f>RANK(F13,$F$6:$F$21)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="L13">
-        <f>RANK(H13,$H$6:$H$21)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="M13">
-        <f>RANK(I13,$I$6:$I$21)</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="O13">
-        <f>SUM(K13:M13)</f>
+        <f t="shared" si="3"/>
         <v>23</v>
       </c>
       <c r="Q13">
-        <f>RANK(O13,$O$6:$O$21,1)</f>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
     </row>
@@ -2351,23 +2354,23 @@
         <v>19</v>
       </c>
       <c r="K14">
-        <f>RANK(F14,$F$6:$F$21)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="L14">
-        <f>RANK(H14,$H$6:$H$21)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="M14">
-        <f>RANK(I14,$I$6:$I$21)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="O14">
-        <f>SUM(K14:M14)</f>
+        <f t="shared" si="3"/>
         <v>24</v>
       </c>
       <c r="Q14">
-        <f>RANK(O14,$O$6:$O$21,1)</f>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
     </row>
@@ -2397,23 +2400,23 @@
         <v>19</v>
       </c>
       <c r="K15">
-        <f>RANK(F15,$F$6:$F$21)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="L15">
-        <f>RANK(H15,$H$6:$H$21)</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="M15">
-        <f>RANK(I15,$I$6:$I$21)</f>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="O15">
-        <f>SUM(K15:M15)</f>
+        <f t="shared" si="3"/>
         <v>31</v>
       </c>
       <c r="Q15">
-        <f>RANK(O15,$O$6:$O$21,1)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
     </row>
@@ -2443,23 +2446,23 @@
         <v>19</v>
       </c>
       <c r="K16">
-        <f>RANK(F16,$F$6:$F$21)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="L16">
-        <f>RANK(H16,$H$6:$H$21)</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="M16">
-        <f>RANK(I16,$I$6:$I$21)</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="O16">
-        <f>SUM(K16:M16)</f>
+        <f t="shared" si="3"/>
         <v>32</v>
       </c>
       <c r="Q16">
-        <f>RANK(O16,$O$6:$O$21,1)</f>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
     </row>
@@ -2489,23 +2492,23 @@
         <v>19</v>
       </c>
       <c r="K17">
-        <f>RANK(F17,$F$6:$F$21)</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="L17">
-        <f>RANK(H17,$H$6:$H$21)</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="M17">
-        <f>RANK(I17,$I$6:$I$21)</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="O17">
-        <f>SUM(K17:M17)</f>
+        <f t="shared" si="3"/>
         <v>35</v>
       </c>
       <c r="Q17">
-        <f>RANK(O17,$O$6:$O$21,1)</f>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
     </row>
@@ -2535,23 +2538,23 @@
         <v>19</v>
       </c>
       <c r="K18">
-        <f>RANK(F18,$F$6:$F$21)</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="L18">
-        <f>RANK(H18,$H$6:$H$21)</f>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="M18">
-        <f>RANK(I18,$I$6:$I$21)</f>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="O18">
-        <f>SUM(K18:M18)</f>
+        <f t="shared" si="3"/>
         <v>40</v>
       </c>
       <c r="Q18">
-        <f>RANK(O18,$O$6:$O$21,1)</f>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
     </row>
@@ -2581,23 +2584,23 @@
         <v>19</v>
       </c>
       <c r="K19">
-        <f>RANK(F19,$F$6:$F$21)</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="L19">
-        <f>RANK(H19,$H$6:$H$21)</f>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="M19">
-        <f>RANK(I19,$I$6:$I$21)</f>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="O19">
-        <f>SUM(K19:M19)</f>
+        <f t="shared" si="3"/>
         <v>41</v>
       </c>
       <c r="Q19">
-        <f>RANK(O19,$O$6:$O$21,1)</f>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
     </row>
@@ -2612,35 +2615,38 @@
         <v>11</v>
       </c>
       <c r="F20">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="G20">
-        <v>79.3</v>
+        <v>79.400000000000006</v>
       </c>
       <c r="H20">
-        <v>-3.0516999999999999</v>
+        <v>-3.125</v>
       </c>
       <c r="I20">
-        <v>-3.9089999999999998</v>
+        <v>-3.8041999999999998</v>
+      </c>
+      <c r="J20" t="s">
+        <v>21</v>
       </c>
       <c r="K20">
-        <f>RANK(F20,$F$6:$F$21)</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="L20">
-        <f>RANK(H20,$H$6:$H$21)</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="M20">
-        <f>RANK(I20,$I$6:$I$21)</f>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="O20">
-        <f>SUM(K20:M20)</f>
+        <f t="shared" si="3"/>
         <v>45</v>
       </c>
       <c r="Q20">
-        <f>RANK(O20,$O$6:$O$21,1)</f>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
     </row>
@@ -2740,23 +2746,23 @@
         <v>20</v>
       </c>
       <c r="K6">
-        <f>RANK(F6,$F$6:$F$21)</f>
+        <f t="shared" ref="K6:K20" si="0">RANK(F6,$F$6:$F$21)</f>
         <v>1</v>
       </c>
       <c r="L6">
-        <f>RANK(H6,$H$6:$H$21)</f>
+        <f t="shared" ref="L6:L20" si="1">RANK(H6,$H$6:$H$21)</f>
         <v>1</v>
       </c>
       <c r="M6">
-        <f>RANK(I6,$I$6:$I$21)</f>
+        <f t="shared" ref="M6:M20" si="2">RANK(I6,$I$6:$I$21)</f>
         <v>1</v>
       </c>
       <c r="O6">
-        <f>SUM(K6:M6)</f>
+        <f t="shared" ref="O6:O20" si="3">SUM(K6:M6)</f>
         <v>3</v>
       </c>
       <c r="Q6">
-        <f>RANK(O6,$O$6:$O$21,1)</f>
+        <f t="shared" ref="Q6:Q20" si="4">RANK(O6,$O$6:$O$21,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -2786,23 +2792,23 @@
         <v>19</v>
       </c>
       <c r="K7">
-        <f>RANK(F7,$F$6:$F$21)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="L7">
-        <f>RANK(H7,$H$6:$H$21)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="M7">
-        <f>RANK(I7,$I$6:$I$21)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="O7">
-        <f>SUM(K7:M7)</f>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="Q7">
-        <f>RANK(O7,$O$6:$O$21,1)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
@@ -2832,23 +2838,23 @@
         <v>19</v>
       </c>
       <c r="K8">
-        <f>RANK(F8,$F$6:$F$21)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="L8">
-        <f>RANK(H8,$H$6:$H$21)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="M8">
-        <f>RANK(I8,$I$6:$I$21)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="O8">
-        <f>SUM(K8:M8)</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="Q8">
-        <f>RANK(O8,$O$6:$O$21,1)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
     </row>
@@ -2878,23 +2884,23 @@
         <v>19</v>
       </c>
       <c r="K9">
-        <f>RANK(F9,$F$6:$F$21)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="L9">
-        <f>RANK(H9,$H$6:$H$21)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="M9">
-        <f>RANK(I9,$I$6:$I$21)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="O9">
-        <f>SUM(K9:M9)</f>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="Q9">
-        <f>RANK(O9,$O$6:$O$21,1)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
     </row>
@@ -2924,23 +2930,23 @@
         <v>19</v>
       </c>
       <c r="K10">
-        <f>RANK(F10,$F$6:$F$21)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="L10">
-        <f>RANK(H10,$H$6:$H$21)</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="M10">
-        <f>RANK(I10,$I$6:$I$21)</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="O10">
-        <f>SUM(K10:M10)</f>
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
       <c r="Q10">
-        <f>RANK(O10,$O$6:$O$21,1)</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
     </row>
@@ -2970,23 +2976,23 @@
         <v>19</v>
       </c>
       <c r="K11">
-        <f>RANK(F11,$F$6:$F$21)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="L11">
-        <f>RANK(H11,$H$6:$H$21)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="M11">
-        <f>RANK(I11,$I$6:$I$21)</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="O11">
-        <f>SUM(K11:M11)</f>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="Q11">
-        <f>RANK(O11,$O$6:$O$21,1)</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
     </row>
@@ -3016,23 +3022,23 @@
         <v>19</v>
       </c>
       <c r="K12">
-        <f>RANK(F12,$F$6:$F$21)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="L12">
-        <f>RANK(H12,$H$6:$H$21)</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="M12">
-        <f>RANK(I12,$I$6:$I$21)</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="O12">
-        <f>SUM(K12:M12)</f>
+        <f t="shared" si="3"/>
         <v>23</v>
       </c>
       <c r="Q12">
-        <f>RANK(O12,$O$6:$O$21,1)</f>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
     </row>
@@ -3062,23 +3068,23 @@
         <v>19</v>
       </c>
       <c r="K13">
-        <f>RANK(F13,$F$6:$F$21)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="L13">
-        <f>RANK(H13,$H$6:$H$21)</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="M13">
-        <f>RANK(I13,$I$6:$I$21)</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="O13">
-        <f>SUM(K13:M13)</f>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="Q13">
-        <f>RANK(O13,$O$6:$O$21,1)</f>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
     </row>
@@ -3108,23 +3114,23 @@
         <v>19</v>
       </c>
       <c r="K14">
-        <f>RANK(F14,$F$6:$F$21)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="L14">
-        <f>RANK(H14,$H$6:$H$21)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="M14">
-        <f>RANK(I14,$I$6:$I$21)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="O14">
-        <f>SUM(K14:M14)</f>
+        <f t="shared" si="3"/>
         <v>26</v>
       </c>
       <c r="Q14">
-        <f>RANK(O14,$O$6:$O$21,1)</f>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
     </row>
@@ -3154,23 +3160,23 @@
         <v>19</v>
       </c>
       <c r="K15">
-        <f>RANK(F15,$F$6:$F$21)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="L15">
-        <f>RANK(H15,$H$6:$H$21)</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="M15">
-        <f>RANK(I15,$I$6:$I$21)</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="O15">
-        <f>SUM(K15:M15)</f>
+        <f t="shared" si="3"/>
         <v>27</v>
       </c>
       <c r="Q15">
-        <f>RANK(O15,$O$6:$O$21,1)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
     </row>
@@ -3200,23 +3206,23 @@
         <v>20</v>
       </c>
       <c r="K16">
-        <f>RANK(F16,$F$6:$F$21)</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="L16">
-        <f>RANK(H16,$H$6:$H$21)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="M16">
-        <f>RANK(I16,$I$6:$I$21)</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="O16">
-        <f>SUM(K16:M16)</f>
+        <f t="shared" si="3"/>
         <v>29</v>
       </c>
       <c r="Q16">
-        <f>RANK(O16,$O$6:$O$21,1)</f>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
     </row>
@@ -3246,23 +3252,23 @@
         <v>20</v>
       </c>
       <c r="K17">
-        <f>RANK(F17,$F$6:$F$21)</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="L17">
-        <f>RANK(H17,$H$6:$H$21)</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="M17">
-        <f>RANK(I17,$I$6:$I$21)</f>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="O17">
-        <f>SUM(K17:M17)</f>
+        <f t="shared" si="3"/>
         <v>37</v>
       </c>
       <c r="Q17">
-        <f>RANK(O17,$O$6:$O$21,1)</f>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
     </row>
@@ -3292,23 +3298,23 @@
         <v>19</v>
       </c>
       <c r="K18">
-        <f>RANK(F18,$F$6:$F$21)</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="L18">
-        <f>RANK(H18,$H$6:$H$21)</f>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="M18">
-        <f>RANK(I18,$I$6:$I$21)</f>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="O18">
-        <f>SUM(K18:M18)</f>
+        <f t="shared" si="3"/>
         <v>39</v>
       </c>
       <c r="Q18">
-        <f>RANK(O18,$O$6:$O$21,1)</f>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
     </row>
@@ -3338,23 +3344,23 @@
         <v>19</v>
       </c>
       <c r="K19">
-        <f>RANK(F19,$F$6:$F$21)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="L19">
-        <f>RANK(H19,$H$6:$H$21)</f>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="M19">
-        <f>RANK(I19,$I$6:$I$21)</f>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="O19">
-        <f>SUM(K19:M19)</f>
+        <f t="shared" si="3"/>
         <v>40</v>
       </c>
       <c r="Q19">
-        <f>RANK(O19,$O$6:$O$21,1)</f>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
     </row>
@@ -3384,23 +3390,23 @@
         <v>20</v>
       </c>
       <c r="K20">
-        <f>RANK(F20,$F$6:$F$21)</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="L20">
-        <f>RANK(H20,$H$6:$H$21)</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="M20">
-        <f>RANK(I20,$I$6:$I$21)</f>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="O20">
-        <f>SUM(K20:M20)</f>
+        <f t="shared" si="3"/>
         <v>45</v>
       </c>
       <c r="Q20">
-        <f>RANK(O20,$O$6:$O$21,1)</f>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
     </row>
